--- a/Students&Preferences(120).xlsx
+++ b/Students&Preferences(120).xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Student &amp; Preferences(120)" r:id="rId3" sheetId="1"/>
+    <sheet name="Classes.Student &amp; Preferences(1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -17,7 +17,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Student Number</t>
+    <t>Classes.Student Number</t>
   </si>
   <si>
     <t>Stream</t>
@@ -53,568 +53,568 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Dale Scott</t>
+    <t>Ian King</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Abstract views on singing torch songs</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>directing indy movies</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Benedict Burke</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting capitalism</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>seducing miltary officers</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>writing Hollywood movies</t>
+  </si>
+  <si>
+    <t>directing robot movies</t>
+  </si>
+  <si>
+    <t>Caleb Sweeney</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories,</t>
+  </si>
+  <si>
+    <t>selling military secrets</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>Myles Flynn</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Darragh Thompson</t>
+  </si>
+  <si>
+    <t>promoting political causes</t>
+  </si>
+  <si>
+    <t>Abstract views on ruling over subjects</t>
+  </si>
+  <si>
+    <t>Benjamin Duffy</t>
+  </si>
+  <si>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in indy movies</t>
+  </si>
+  <si>
+    <t>Edmond Lyons</t>
+  </si>
+  <si>
+    <t>Self Specified Project</t>
+  </si>
+  <si>
+    <t>Clayton O'Shea</t>
+  </si>
+  <si>
+    <t>Paul King</t>
+  </si>
+  <si>
+    <t>Kelvin O'Connell</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Odhran O'Dwyer</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>Mohammed Flynn</t>
+  </si>
+  <si>
+    <t>Frank MacKenna</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Jason Brady</t>
+  </si>
+  <si>
+    <t>Jesse Donnelly</t>
+  </si>
+  <si>
+    <t>Finn Burns</t>
+  </si>
+  <si>
+    <t>Rory O'Sullivan</t>
+  </si>
+  <si>
+    <t>Ricky Collins</t>
+  </si>
+  <si>
+    <t>Dillon O'Shea</t>
+  </si>
+  <si>
+    <t>developing real estate</t>
+  </si>
+  <si>
+    <t>Arthur Maher</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>Aran Burke</t>
+  </si>
+  <si>
+    <t>Nathaniel Doyle</t>
+  </si>
+  <si>
+    <t>Marco Cunningham</t>
+  </si>
+  <si>
+    <t>Robert Molony</t>
+  </si>
+  <si>
+    <t>Rory Thompson</t>
+  </si>
+  <si>
+    <t>Shay Burke</t>
+  </si>
+  <si>
+    <t>Harold Kelly</t>
+  </si>
+  <si>
+    <t>Arron MacDermott</t>
+  </si>
+  <si>
+    <t>Shane Whelan</t>
+  </si>
+  <si>
+    <t>Ruadhan Regan</t>
+  </si>
+  <si>
+    <t>Dominic Casey</t>
+  </si>
+  <si>
+    <t>Caoimhin Boyle</t>
+  </si>
+  <si>
+    <t>Colin MacNamara</t>
+  </si>
+  <si>
+    <t>Owen Hogan</t>
+  </si>
+  <si>
+    <t>Corey Ward</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Josh White</t>
+  </si>
+  <si>
+    <t>Jeffrey O'Reilly</t>
+  </si>
+  <si>
+    <t>Danny MacDermott</t>
+  </si>
+  <si>
+    <t>Fionnan Kennedy</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Dean Griffin</t>
+  </si>
+  <si>
+    <t>Conal Walsh</t>
+  </si>
+  <si>
+    <t>Dane Ward</t>
+  </si>
+  <si>
+    <t>Tim Hogan</t>
+  </si>
+  <si>
+    <t>Jonathan Doyle</t>
+  </si>
+  <si>
+    <t>Turlough Griffin</t>
+  </si>
+  <si>
+    <t>Marco O'Connor</t>
+  </si>
+  <si>
+    <t>Danny Smith</t>
+  </si>
+  <si>
+    <t>Mathew O'Doherty</t>
+  </si>
+  <si>
+    <t>Conall Graham</t>
+  </si>
+  <si>
+    <t>Micheal Byrne</t>
+  </si>
+  <si>
+    <t>Donal Boyle</t>
+  </si>
+  <si>
+    <t>Jonathan Buckley</t>
+  </si>
+  <si>
+    <t>Erin Barry</t>
+  </si>
+  <si>
+    <t>Julian McGrath</t>
+  </si>
+  <si>
+    <t>Antonio Smith</t>
+  </si>
+  <si>
+    <t>Raymond Daly</t>
+  </si>
+  <si>
+    <t>Damien O'Reilly</t>
+  </si>
+  <si>
+    <t>Tyreke Graham</t>
+  </si>
+  <si>
+    <t>Kyle Nolan</t>
+  </si>
+  <si>
+    <t>Luke MacDonald</t>
+  </si>
+  <si>
+    <t>Owen O'Doherty</t>
+  </si>
+  <si>
+    <t>Finnian Doyle</t>
+  </si>
+  <si>
+    <t>Conrad Kane</t>
+  </si>
+  <si>
+    <t>Daithi McCarthy</t>
+  </si>
+  <si>
+    <t>Leo O'Keeffe</t>
+  </si>
+  <si>
+    <t>Lukas Quinn</t>
+  </si>
+  <si>
+    <t>Jeremy Griffin</t>
+  </si>
+  <si>
+    <t>Micahel Foley</t>
+  </si>
+  <si>
+    <t>Keith Kelly</t>
+  </si>
+  <si>
+    <t>Erin Flanagan</t>
+  </si>
+  <si>
+    <t>Joseph Daly</t>
+  </si>
+  <si>
+    <t>Maurice Clarke</t>
+  </si>
+  <si>
+    <t>Ferdia McLoughlin</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>inventing lies</t>
+  </si>
+  <si>
+    <t>chasing rabbits</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>Albert Hughes</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Abstract views on  climbing social ladders</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders</t>
+  </si>
+  <si>
+    <t>Kalum Martin</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>Ruairi Bell</t>
+  </si>
+  <si>
+    <t>Abstract views on disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>Evan MacDermott</t>
+  </si>
+  <si>
+    <t>Abstract views on chasing rabbits</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Luca Thompson</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
+  </si>
+  <si>
+    <t>Regan Duffy</t>
+  </si>
+  <si>
+    <t>Davin O'Rourke</t>
+  </si>
+  <si>
+    <t>Abstract views on evading mercenaries</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>Abstract views on standing up to bullies</t>
+  </si>
+  <si>
+    <t>Donnchadh Hughes</t>
+  </si>
+  <si>
+    <t>Declan O'Neill</t>
+  </si>
+  <si>
+    <t>Brendan Graham</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>Denis O'Rourke</t>
+  </si>
+  <si>
+    <t>Cormac Campbell</t>
+  </si>
+  <si>
+    <t>Charles White</t>
+  </si>
+  <si>
+    <t>Luca Molony</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>Robin Ryan</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Felix Wilson</t>
+  </si>
+  <si>
+    <t>concocting magic potions</t>
+  </si>
+  <si>
+    <t>Terence O'Leary</t>
+  </si>
+  <si>
+    <t>Gary Brown</t>
+  </si>
+  <si>
     <t>playing rock guitar</t>
   </si>
   <si>
-    <t>Abstract views on advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>teaching young mutants</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>Damien O'Donnell</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Abstract views on developing military strategies</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Abstract views on playing rock music</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy</t>
-  </si>
-  <si>
-    <t>creating optical illusions</t>
-  </si>
-  <si>
-    <t>Abstract views on painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Davin O'Leary</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Abstract views on growing up poor</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Bill O'Rourke</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bailey Stewart</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>promoting tolerance</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>Ali Burke</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>reading minds</t>
-  </si>
-  <si>
-    <t>Abstract views on Research Activity</t>
-  </si>
-  <si>
-    <t>Abstract views on pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Tomas Kenny</t>
-  </si>
-  <si>
-    <t>Abstract views on building rocket ships</t>
-  </si>
-  <si>
-    <t>chasing women</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>telling tall tales</t>
-  </si>
-  <si>
-    <t>Jeffrey Thompson</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Abstract views on studying the cosmos</t>
-  </si>
-  <si>
-    <t>looking for sex</t>
-  </si>
-  <si>
-    <t>Devon O'Rourke</t>
-  </si>
-  <si>
-    <t>dating young women</t>
-  </si>
-  <si>
-    <t>promoting diversity</t>
-  </si>
-  <si>
-    <t>Clive MacDonald</t>
-  </si>
-  <si>
-    <t>Abstract views on singing romantic songs</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>Ivan Sheehan</t>
-  </si>
-  <si>
-    <t>Research Activity</t>
-  </si>
-  <si>
-    <t>Marc King</t>
-  </si>
-  <si>
-    <t>exploiting women</t>
-  </si>
-  <si>
-    <t>Olan Daly</t>
-  </si>
-  <si>
-    <t>Abstract views on doing the Charleston</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Grant Magee</t>
-  </si>
-  <si>
-    <t>Neal Donovan</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Gearoid O'Dwyer</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Lee Brady</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting with swords</t>
-  </si>
-  <si>
-    <t>Joshua McLoughlin</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
-  </si>
-  <si>
-    <t>Keelin Burns</t>
-  </si>
-  <si>
-    <t>Abstract views on  fighting for democracy</t>
-  </si>
-  <si>
-    <t>Danny Lyons</t>
-  </si>
-  <si>
-    <t>Andy Ward</t>
-  </si>
-  <si>
-    <t>inventing lies</t>
-  </si>
-  <si>
-    <t>Hugo Cullen</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Kristian Kennedy</t>
-  </si>
-  <si>
-    <t>Kyran O'Neill</t>
-  </si>
-  <si>
-    <t>Jimmy O'Leary</t>
-  </si>
-  <si>
-    <t>Abstract views on selling consumer goods</t>
-  </si>
-  <si>
-    <t>Devon Walsh</t>
-  </si>
-  <si>
-    <t>Keenan Donovan</t>
-  </si>
-  <si>
-    <t>Cody Moore</t>
-  </si>
-  <si>
-    <t>Terence Wilson</t>
-  </si>
-  <si>
-    <t>Erin Lyons</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting greed</t>
-  </si>
-  <si>
-    <t>Mathew O'Callaghan</t>
-  </si>
-  <si>
-    <t>Bailey Maguire</t>
-  </si>
-  <si>
-    <t>Frederick Kane</t>
-  </si>
-  <si>
-    <t>Donnchadh Quinn</t>
-  </si>
-  <si>
-    <t>Hugh Clarke</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Stephen Daly</t>
-  </si>
-  <si>
-    <t>Brion Brady</t>
-  </si>
-  <si>
-    <t>Karl Flynn</t>
-  </si>
-  <si>
-    <t>Darrell McDonnell</t>
-  </si>
-  <si>
-    <t>Marco Maguire</t>
-  </si>
-  <si>
-    <t>Finbar Casey</t>
-  </si>
-  <si>
-    <t>Fergal O'Rourke</t>
-  </si>
-  <si>
-    <t>Abstract views on running an empire</t>
-  </si>
-  <si>
-    <t>Edmond O'Keeffe</t>
-  </si>
-  <si>
-    <t>Darragh O'Sullivan</t>
-  </si>
-  <si>
-    <t>Cian Healy</t>
-  </si>
-  <si>
-    <t>Rossa Scott</t>
-  </si>
-  <si>
-    <t>Justin Collins</t>
-  </si>
-  <si>
-    <t>Ricky Molony</t>
-  </si>
-  <si>
-    <t>Ferdia McGrath</t>
-  </si>
-  <si>
-    <t>Diarmuid O'Shea</t>
-  </si>
-  <si>
-    <t>Devon Bell</t>
-  </si>
-  <si>
-    <t>Damian Cunningham</t>
-  </si>
-  <si>
-    <t>Travis O'Neill</t>
-  </si>
-  <si>
-    <t>Robert Sheehan</t>
-  </si>
-  <si>
-    <t>Andrew Wilson</t>
-  </si>
-  <si>
-    <t>Felix MacDonald</t>
-  </si>
-  <si>
-    <t>Greg MacNamara</t>
-  </si>
-  <si>
-    <t>Andrea O'Shea</t>
-  </si>
-  <si>
-    <t>Brad Connolly</t>
-  </si>
-  <si>
-    <t>Lloyd O'Keeffe</t>
-  </si>
-  <si>
-    <t>Warren O'Mahony</t>
-  </si>
-  <si>
-    <t>Cian Nolan</t>
-  </si>
-  <si>
-    <t>Martin Maguire</t>
-  </si>
-  <si>
-    <t>Pauric O'Connell</t>
-  </si>
-  <si>
-    <t>Stefan Clarke</t>
-  </si>
-  <si>
-    <t>Jared Donnelly</t>
-  </si>
-  <si>
-    <t>Feargal Brown</t>
-  </si>
-  <si>
-    <t>Oliver Hayes</t>
-  </si>
-  <si>
-    <t>Andy Collins</t>
-  </si>
-  <si>
-    <t>Daniel Johnston</t>
-  </si>
-  <si>
-    <t>Ross Smith</t>
-  </si>
-  <si>
-    <t>Leigh MacDermott</t>
-  </si>
-  <si>
-    <t>Bailey Fitzpatrick</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Eli Clarke</t>
-  </si>
-  <si>
-    <t>Graeme Power</t>
-  </si>
-  <si>
-    <t>Kieran MacDermott</t>
-  </si>
-  <si>
-    <t>Clayton Campbell</t>
-  </si>
-  <si>
-    <t>Jessie MacNamara</t>
-  </si>
-  <si>
-    <t>Cilian Fitzgerald</t>
-  </si>
-  <si>
-    <t>Conor Molony</t>
-  </si>
-  <si>
-    <t>Julius Connolly</t>
-  </si>
-  <si>
-    <t>Aiden Magee</t>
-  </si>
-  <si>
-    <t>Levi Brennan</t>
-  </si>
-  <si>
-    <t>Joseph King</t>
-  </si>
-  <si>
-    <t>Rowan Keane</t>
-  </si>
-  <si>
-    <t>Alan O'Dwyer</t>
-  </si>
-  <si>
-    <t>Gregory O'Brien</t>
-  </si>
-  <si>
-    <t>Glenn Scott</t>
-  </si>
-  <si>
-    <t>Jonathan Brady</t>
-  </si>
-  <si>
-    <t>Noah Burns</t>
-  </si>
-  <si>
-    <t>Joe Foley</t>
-  </si>
-  <si>
-    <t>Ivan McGrath</t>
-  </si>
-  <si>
-    <t>Harry Kavanagh</t>
-  </si>
-  <si>
-    <t>Ali Hogan</t>
-  </si>
-  <si>
-    <t>Donal Sheehan</t>
-  </si>
-  <si>
-    <t>Donagh Griffin</t>
-  </si>
-  <si>
-    <t>Brain Daly</t>
-  </si>
-  <si>
-    <t>Sebastian Johnston</t>
-  </si>
-  <si>
-    <t>Oscar Buckley</t>
-  </si>
-  <si>
-    <t>Saul Johnston</t>
-  </si>
-  <si>
-    <t>Grant O'Neill</t>
-  </si>
-  <si>
-    <t>Tiernan Brady</t>
-  </si>
-  <si>
-    <t>Shawn Quinn</t>
-  </si>
-  <si>
-    <t>Connor Cunningham</t>
-  </si>
-  <si>
-    <t>Ben McDonnell</t>
-  </si>
-  <si>
-    <t>Tomas Brennan</t>
-  </si>
-  <si>
-    <t>George White</t>
-  </si>
-  <si>
-    <t>Leigh Nolan</t>
-  </si>
-  <si>
-    <t>Ralph Regan</t>
-  </si>
-  <si>
-    <t>Raphael Griffin</t>
-  </si>
-  <si>
-    <t>Antonio Moran</t>
-  </si>
-  <si>
-    <t>Lewis O'Mahony</t>
-  </si>
-  <si>
-    <t>Alex O'Connor</t>
-  </si>
-  <si>
-    <t>Timmy Martin</t>
-  </si>
-  <si>
-    <t>Ivan Casey</t>
-  </si>
-  <si>
-    <t>Fintan Flanagan</t>
-  </si>
-  <si>
-    <t>Bailey Kennedy</t>
-  </si>
-  <si>
-    <t>Andrea Martin</t>
-  </si>
-  <si>
-    <t>Pearse McDonnell</t>
-  </si>
-  <si>
-    <t>Oscar Gallagher</t>
+    <t>Kaylem Moore</t>
+  </si>
+  <si>
+    <t>Lewis Cullen</t>
+  </si>
+  <si>
+    <t>Devon O'Neill</t>
+  </si>
+  <si>
+    <t>Emmanuel O'Doherty</t>
+  </si>
+  <si>
+    <t>Abstract views on singing parody songs</t>
+  </si>
+  <si>
+    <t>Micheal Moore</t>
+  </si>
+  <si>
+    <t>Andrew Burke</t>
+  </si>
+  <si>
+    <t>Philip Higgins</t>
+  </si>
+  <si>
+    <t>Wesley Burns</t>
+  </si>
+  <si>
+    <t>Johnny Connolly</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>Ricky King</t>
+  </si>
+  <si>
+    <t>Ethon Donnelly</t>
+  </si>
+  <si>
+    <t>Maximillian Donovan</t>
+  </si>
+  <si>
+    <t>Ruadhan O'Keeffe</t>
+  </si>
+  <si>
+    <t>Raymond Lyons</t>
+  </si>
+  <si>
+    <t>Cailum MacDermott</t>
+  </si>
+  <si>
+    <t>Bernard McLoughlin</t>
+  </si>
+  <si>
+    <t>Shay Hughes</t>
+  </si>
+  <si>
+    <t>Ros Barry</t>
+  </si>
+  <si>
+    <t>Lewis Mullan</t>
+  </si>
+  <si>
+    <t>Dan Lynch</t>
+  </si>
+  <si>
+    <t>Kelvin Ryan</t>
+  </si>
+  <si>
+    <t>Larry Doyle</t>
+  </si>
+  <si>
+    <t>Finbar Burns</t>
+  </si>
+  <si>
+    <t>Zachary O'Doherty</t>
+  </si>
+  <si>
+    <t>Alexander O'Callaghan</t>
+  </si>
+  <si>
+    <t>Eoghan O'Connell</t>
+  </si>
+  <si>
+    <t>Rian Hughes</t>
+  </si>
+  <si>
+    <t>Charlie Cullen</t>
+  </si>
+  <si>
+    <t>Ashley Higgins</t>
   </si>
 </sst>
 </file>
@@ -671,19 +671,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="43.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="43.80859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="44.82421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.82421875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="44.82421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="44.82421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="44.82421875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="44.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="43.80859375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="44.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -732,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>714531.0</v>
+        <v>686491.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -773,119 +773,119 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>648268.0</v>
+        <v>491455.0</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>947821.0</v>
+        <v>173293.0</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" t="n">
-        <v>344348.0</v>
+        <v>887715.0</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
@@ -893,368 +893,368 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" t="n">
-        <v>534272.0</v>
+        <v>584921.0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>921255.0</v>
+        <v>353812.0</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>946414.0</v>
+        <v>225375.0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>787584.0</v>
+        <v>267589.0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B10" t="n">
-        <v>926234.0</v>
+        <v>362943.0</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B11" t="n">
-        <v>173596.0</v>
+        <v>493221.0</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>535255.0</v>
+        <v>319776.0</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B13" t="n">
-        <v>917283.0</v>
+        <v>533122.0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B14" t="n">
-        <v>746561.0</v>
+        <v>716822.0</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
@@ -1262,450 +1262,450 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B15" t="n">
-        <v>611424.0</v>
+        <v>699693.0</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B16" t="n">
-        <v>536448.0</v>
+        <v>771421.0</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
         <v>27</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B17" t="n">
-        <v>653816.0</v>
+        <v>623374.0</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B18" t="n">
-        <v>875435.0</v>
+        <v>564923.0</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
         <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B19" t="n">
-        <v>221392.0</v>
+        <v>122187.0</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B20" t="n">
-        <v>249885.0</v>
+        <v>869777.0</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B21" t="n">
-        <v>969642.0</v>
+        <v>785963.0</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B22" t="n">
-        <v>318435.0</v>
+        <v>863427.0</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B23" t="n">
-        <v>883148.0</v>
+        <v>729648.0</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
         <v>56</v>
       </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B24" t="n">
-        <v>395447.0</v>
+        <v>588694.0</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B25" t="n">
-        <v>551461.0</v>
+        <v>889258.0</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
         <v>24</v>
@@ -1713,204 +1713,204 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B26" t="n">
-        <v>574347.0</v>
+        <v>563731.0</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B27" t="n">
-        <v>425962.0</v>
+        <v>695339.0</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B28" t="n">
-        <v>622998.0</v>
+        <v>145473.0</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B29" t="n">
-        <v>934359.0</v>
+        <v>859566.0</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B30" t="n">
-        <v>887724.0</v>
+        <v>852557.0</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M30" t="s">
         <v>23</v>
@@ -1918,1803 +1918,1803 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B31" t="n">
-        <v>812254.0</v>
+        <v>149412.0</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B32" t="n">
-        <v>639214.0</v>
+        <v>618419.0</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B33" t="n">
-        <v>351161.0</v>
+        <v>779824.0</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B34" t="n">
-        <v>562572.0</v>
+        <v>223134.0</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B35" t="n">
-        <v>562568.0</v>
+        <v>768853.0</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B36" t="n">
-        <v>443845.0</v>
+        <v>949368.0</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B37" t="n">
-        <v>389382.0</v>
+        <v>589242.0</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B38" t="n">
-        <v>933736.0</v>
+        <v>577437.0</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B39" t="n">
-        <v>556955.0</v>
+        <v>554728.0</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" t="s">
-        <v>35</v>
-      </c>
       <c r="J39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
         <v>30</v>
       </c>
-      <c r="K39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L39" t="s">
-        <v>62</v>
-      </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n">
-        <v>462568.0</v>
+        <v>289263.0</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
         <v>66</v>
       </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B41" t="n">
-        <v>854591.0</v>
+        <v>949228.0</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
         <v>17</v>
       </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B42" t="n">
-        <v>692749.0</v>
+        <v>168458.0</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
         <v>30</v>
       </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="M42" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B43" t="n">
-        <v>588736.0</v>
+        <v>514727.0</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" t="s">
         <v>20</v>
       </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" t="s">
-        <v>43</v>
-      </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B44" t="n">
-        <v>192623.0</v>
+        <v>532176.0</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B45" t="n">
-        <v>848734.0</v>
+        <v>875879.0</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L45" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B46" t="n">
-        <v>613649.0</v>
+        <v>989451.0</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
         <v>17</v>
       </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" t="s">
-        <v>66</v>
-      </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B47" t="n">
-        <v>393178.0</v>
+        <v>722668.0</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M47" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
-        <v>332324.0</v>
+        <v>875383.0</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
-        <v>393276.0</v>
+        <v>983165.0</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" t="s">
         <v>21</v>
       </c>
-      <c r="I49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" t="s">
-        <v>61</v>
-      </c>
       <c r="M49" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B50" t="n">
-        <v>196419.0</v>
+        <v>752227.0</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
         <v>23</v>
-      </c>
-      <c r="K50" t="s">
-        <v>39</v>
-      </c>
-      <c r="L50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M50" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B51" t="n">
-        <v>645967.0</v>
+        <v>729333.0</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="K51" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B52" t="n">
-        <v>892337.0</v>
+        <v>562824.0</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
         <v>24</v>
       </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L52" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B53" t="n">
-        <v>658481.0</v>
+        <v>574631.0</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" t="s">
         <v>18</v>
       </c>
-      <c r="E53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53" t="s">
-        <v>76</v>
-      </c>
-      <c r="K53" t="s">
-        <v>66</v>
-      </c>
-      <c r="L53" t="s">
-        <v>88</v>
-      </c>
       <c r="M53" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B54" t="n">
-        <v>417167.0</v>
+        <v>445117.0</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="M54" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B55" t="n">
-        <v>371254.0</v>
+        <v>884292.0</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B56" t="n">
-        <v>988136.0</v>
+        <v>588777.0</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B57" t="n">
-        <v>547621.0</v>
+        <v>833645.0</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
         <v>19</v>
       </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s">
-        <v>23</v>
-      </c>
       <c r="I57" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="M57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B58" t="n">
-        <v>869683.0</v>
+        <v>372278.0</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" t="s">
         <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" t="s">
-        <v>78</v>
-      </c>
-      <c r="K58" t="s">
-        <v>23</v>
-      </c>
-      <c r="L58" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B59" t="n">
-        <v>643687.0</v>
+        <v>973614.0</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M59" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B60" t="n">
-        <v>134171.0</v>
+        <v>617649.0</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" t="s">
+        <v>48</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
         <v>41</v>
-      </c>
-      <c r="H60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J60" t="s">
-        <v>86</v>
-      </c>
-      <c r="K60" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" t="s">
-        <v>74</v>
-      </c>
-      <c r="M60" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B61" t="n">
-        <v>781593.0</v>
+        <v>915359.0</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
         <v>32</v>
       </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L61" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B62" t="n">
-        <v>527267.0</v>
+        <v>824397.0</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" t="s">
         <v>46</v>
       </c>
-      <c r="E62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" t="s">
-        <v>88</v>
-      </c>
-      <c r="K62" t="s">
-        <v>76</v>
-      </c>
-      <c r="L62" t="s">
-        <v>40</v>
-      </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B63" t="n">
-        <v>682226.0</v>
+        <v>559939.0</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" t="s">
         <v>17</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>19</v>
       </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" t="s">
-        <v>52</v>
-      </c>
-      <c r="I63" t="s">
-        <v>46</v>
-      </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="M63" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B64" t="n">
-        <v>816112.0</v>
+        <v>712665.0</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K64" t="s">
         <v>19</v>
       </c>
-      <c r="E64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" t="s">
-        <v>61</v>
-      </c>
-      <c r="I64" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" t="s">
-        <v>53</v>
-      </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B65" t="n">
-        <v>436894.0</v>
+        <v>786133.0</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J65" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B66" t="n">
-        <v>251812.0</v>
+        <v>732633.0</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
         <v>56</v>
       </c>
-      <c r="E66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" t="s">
-        <v>46</v>
-      </c>
-      <c r="J66" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" t="s">
-        <v>65</v>
-      </c>
       <c r="L66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B67" t="n">
-        <v>196857.0</v>
+        <v>639676.0</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" t="s">
+        <v>66</v>
+      </c>
+      <c r="L67" t="s">
         <v>16</v>
       </c>
-      <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>23</v>
-      </c>
       <c r="M67" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B68" t="n">
-        <v>569666.0</v>
+        <v>985796.0</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K68" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B69" t="n">
-        <v>173794.0</v>
+        <v>987611.0</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L69" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="M69" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B70" t="n">
-        <v>591394.0</v>
+        <v>547187.0</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
+        <v>56</v>
+      </c>
+      <c r="L70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" t="s">
         <v>21</v>
-      </c>
-      <c r="K70" t="s">
-        <v>63</v>
-      </c>
-      <c r="L70" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B71" t="n">
-        <v>567796.0</v>
+        <v>822425.0</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I71" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" t="s">
         <v>22</v>
       </c>
-      <c r="J71" t="s">
-        <v>80</v>
-      </c>
       <c r="K71" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M71" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B72" t="n">
-        <v>477889.0</v>
+        <v>995558.0</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" t="s">
         <v>36</v>
       </c>
-      <c r="E72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" t="s">
-        <v>38</v>
-      </c>
-      <c r="J72" t="s">
-        <v>56</v>
-      </c>
-      <c r="K72" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" t="s">
-        <v>31</v>
-      </c>
       <c r="M72" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B73" t="n">
-        <v>885699.0</v>
+        <v>716676.0</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
         <v>68</v>
       </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s">
-        <v>38</v>
-      </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L73" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M73" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B74" t="n">
-        <v>267515.0</v>
+        <v>257939.0</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M74" t="s">
         <v>24</v>
@@ -3722,1109 +3722,1109 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B75" t="n">
-        <v>429835.0</v>
+        <v>114728.0</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="I75" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B76" t="n">
-        <v>415293.0</v>
+        <v>858587.0</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K76" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L76" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="M76" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B77" t="n">
-        <v>266719.0</v>
+        <v>184883.0</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="H77" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="K77" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="L77" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="M77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B78" t="n">
-        <v>558265.0</v>
+        <v>845384.0</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="G78" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="H78" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="M78" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B79" t="n">
-        <v>124517.0</v>
+        <v>455183.0</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" t="s">
         <v>46</v>
       </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
       <c r="I79" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="L79" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="M79" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B80" t="n">
-        <v>329576.0</v>
+        <v>116771.0</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I80" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J80" t="s">
         <v>56</v>
       </c>
       <c r="K80" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="L80" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M80" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B81" t="n">
-        <v>787973.0</v>
+        <v>915533.0</v>
       </c>
       <c r="C81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" t="s">
+        <v>152</v>
+      </c>
+      <c r="G81" t="s">
         <v>153</v>
       </c>
-      <c r="D81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81" t="s">
-        <v>76</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
       <c r="H81" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J81" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="M81" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B82" t="n">
-        <v>493913.0</v>
+        <v>428182.0</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="J82" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B83" t="n">
-        <v>527944.0</v>
+        <v>343237.0</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>152</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" t="s">
         <v>41</v>
       </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" t="s">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s">
-        <v>50</v>
-      </c>
-      <c r="K83" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" t="s">
-        <v>19</v>
-      </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B84" t="n">
-        <v>467515.0</v>
+        <v>277852.0</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="H84" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I84" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="J84" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K84" t="s">
+        <v>132</v>
+      </c>
+      <c r="L84" t="s">
+        <v>89</v>
+      </c>
+      <c r="M84" t="s">
         <v>56</v>
-      </c>
-      <c r="L84" t="s">
-        <v>62</v>
-      </c>
-      <c r="M84" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B85" t="n">
-        <v>689522.0</v>
+        <v>148463.0</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H85" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="J85" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K85" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L85" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="M85" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B86" t="n">
-        <v>842413.0</v>
+        <v>932479.0</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I86" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="J86" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="K86" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="L86" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="M86" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B87" t="n">
-        <v>647374.0</v>
+        <v>993881.0</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="H87" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="J87" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="K87" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="L87" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M87" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B88" t="n">
-        <v>489367.0</v>
+        <v>795282.0</v>
       </c>
       <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" t="s">
+        <v>136</v>
+      </c>
+      <c r="K88" t="s">
+        <v>140</v>
+      </c>
+      <c r="L88" t="s">
         <v>153</v>
       </c>
-      <c r="D88" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" t="s">
-        <v>63</v>
-      </c>
-      <c r="I88" t="s">
-        <v>52</v>
-      </c>
-      <c r="J88" t="s">
-        <v>61</v>
-      </c>
-      <c r="K88" t="s">
-        <v>65</v>
-      </c>
-      <c r="L88" t="s">
-        <v>97</v>
-      </c>
       <c r="M88" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B89" t="n">
-        <v>757848.0</v>
+        <v>932685.0</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="H89" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="I89" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="K89" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="L89" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="M89" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B90" t="n">
-        <v>593542.0</v>
+        <v>276638.0</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I90" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="K90" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M90" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B91" t="n">
-        <v>715892.0</v>
+        <v>523585.0</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>135</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
         <v>32</v>
       </c>
-      <c r="E91" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>41</v>
-      </c>
-      <c r="H91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I91" t="s">
-        <v>28</v>
-      </c>
-      <c r="J91" t="s">
-        <v>39</v>
-      </c>
-      <c r="K91" t="s">
-        <v>30</v>
-      </c>
       <c r="L91" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M91" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B92" t="n">
-        <v>946678.0</v>
+        <v>947439.0</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="J92" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="K92" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="L92" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="M92" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B93" t="n">
-        <v>738145.0</v>
+        <v>946832.0</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J93" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K93" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="L93" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M93" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B94" t="n">
-        <v>676694.0</v>
+        <v>846851.0</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="J94" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K94" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="L94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M94" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B95" t="n">
-        <v>327581.0</v>
+        <v>144778.0</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="G95" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="J95" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="K95" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M95" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" t="n">
-        <v>457241.0</v>
+        <v>627326.0</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
         <v>19</v>
       </c>
-      <c r="F96" t="s">
-        <v>61</v>
-      </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="J96" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="K96" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="L96" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="M96" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" t="n">
-        <v>453411.0</v>
+        <v>426841.0</v>
       </c>
       <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" t="s">
+        <v>148</v>
+      </c>
+      <c r="F97" t="s">
         <v>153</v>
       </c>
-      <c r="D97" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s">
-        <v>57</v>
-      </c>
       <c r="G97" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="H97" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="I97" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J97" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="K97" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="L97" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B98" t="n">
-        <v>213193.0</v>
+        <v>724479.0</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H98" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I98" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J98" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="K98" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="L98" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="M98" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" t="n">
-        <v>626524.0</v>
+        <v>885322.0</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="G99" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I99" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="J99" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K99" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L99" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="M99" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B100" t="n">
-        <v>155317.0</v>
+        <v>865528.0</v>
       </c>
       <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" t="s">
+        <v>128</v>
+      </c>
+      <c r="I100" t="s">
         <v>153</v>
       </c>
-      <c r="D100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M100" t="s">
         <v>32</v>
-      </c>
-      <c r="G100" t="s">
-        <v>71</v>
-      </c>
-      <c r="H100" t="s">
-        <v>31</v>
-      </c>
-      <c r="I100" t="s">
-        <v>39</v>
-      </c>
-      <c r="J100" t="s">
-        <v>81</v>
-      </c>
-      <c r="K100" t="s">
-        <v>18</v>
-      </c>
-      <c r="L100" t="s">
-        <v>86</v>
-      </c>
-      <c r="M100" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" t="n">
+        <v>829385.0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>126</v>
+      </c>
+      <c r="I101" t="s">
+        <v>146</v>
+      </c>
+      <c r="J101" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" t="s">
+        <v>134</v>
+      </c>
+      <c r="L101" t="s">
         <v>180</v>
       </c>
-      <c r="B101" t="n">
-        <v>611243.0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s">
-        <v>56</v>
-      </c>
-      <c r="J101" t="s">
-        <v>36</v>
-      </c>
-      <c r="K101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>33</v>
-      </c>
       <c r="M101" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
@@ -4832,40 +4832,40 @@
         <v>181</v>
       </c>
       <c r="B102" t="n">
-        <v>394762.0</v>
+        <v>549322.0</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="H102" t="s">
         <v>28</v>
       </c>
       <c r="I102" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="J102" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="K102" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="L102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M102" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103">
@@ -4873,40 +4873,40 @@
         <v>182</v>
       </c>
       <c r="B103" t="n">
-        <v>464915.0</v>
+        <v>557652.0</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I103" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M103" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
@@ -4914,40 +4914,40 @@
         <v>183</v>
       </c>
       <c r="B104" t="n">
-        <v>573916.0</v>
+        <v>562499.0</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="G104" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="I104" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="J104" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="K104" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="L104" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="M104" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105">
@@ -4955,40 +4955,40 @@
         <v>184</v>
       </c>
       <c r="B105" t="n">
-        <v>692471.0</v>
+        <v>159343.0</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="F105" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H105" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="K105" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="L105" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="M105" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -4996,40 +4996,40 @@
         <v>185</v>
       </c>
       <c r="B106" t="n">
-        <v>555757.0</v>
+        <v>997946.0</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="G106" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="K106" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L106" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M106" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
@@ -5037,40 +5037,40 @@
         <v>186</v>
       </c>
       <c r="B107" t="n">
-        <v>498831.0</v>
+        <v>978878.0</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="H107" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K107" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="L107" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="M107" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
@@ -5078,40 +5078,40 @@
         <v>187</v>
       </c>
       <c r="B108" t="n">
-        <v>192532.0</v>
+        <v>414115.0</v>
       </c>
       <c r="C108" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G108" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="H108" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I108" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="J108" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="K108" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L108" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="M108" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
@@ -5119,40 +5119,40 @@
         <v>188</v>
       </c>
       <c r="B109" t="n">
-        <v>513672.0</v>
+        <v>355598.0</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="H109" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="J109" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="K109" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="L109" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M109" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
@@ -5160,40 +5160,40 @@
         <v>189</v>
       </c>
       <c r="B110" t="n">
-        <v>688459.0</v>
+        <v>547573.0</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="H110" t="s">
         <v>28</v>
       </c>
       <c r="I110" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="K110" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="L110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M110" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -5201,40 +5201,40 @@
         <v>190</v>
       </c>
       <c r="B111" t="n">
-        <v>717681.0</v>
+        <v>737875.0</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J111" t="s">
+        <v>148</v>
+      </c>
+      <c r="K111" t="s">
+        <v>146</v>
+      </c>
+      <c r="L111" t="s">
+        <v>127</v>
+      </c>
+      <c r="M111" t="s">
         <v>32</v>
-      </c>
-      <c r="K111" t="s">
-        <v>23</v>
-      </c>
-      <c r="L111" t="s">
-        <v>16</v>
-      </c>
-      <c r="M111" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="112">
@@ -5242,40 +5242,40 @@
         <v>191</v>
       </c>
       <c r="B112" t="n">
-        <v>983147.0</v>
+        <v>355351.0</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I112" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="J112" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K112" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="L112" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M112" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
@@ -5283,40 +5283,40 @@
         <v>192</v>
       </c>
       <c r="B113" t="n">
-        <v>658654.0</v>
+        <v>329422.0</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E113" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="F113" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="G113" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="J113" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="K113" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L113" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="M113" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114">
@@ -5324,40 +5324,40 @@
         <v>193</v>
       </c>
       <c r="B114" t="n">
-        <v>685388.0</v>
+        <v>137739.0</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E114" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
         <v>32</v>
       </c>
-      <c r="F114" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I114" t="s">
+        <v>126</v>
+      </c>
+      <c r="J114" t="s">
         <v>19</v>
       </c>
-      <c r="H114" t="s">
-        <v>40</v>
-      </c>
-      <c r="I114" t="s">
-        <v>18</v>
-      </c>
-      <c r="J114" t="s">
-        <v>36</v>
-      </c>
       <c r="K114" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="L114" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="M114" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115">
@@ -5365,40 +5365,40 @@
         <v>194</v>
       </c>
       <c r="B115" t="n">
-        <v>593967.0</v>
+        <v>964917.0</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E115" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="K115" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="L115" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="M115" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -5406,40 +5406,40 @@
         <v>195</v>
       </c>
       <c r="B116" t="n">
-        <v>462897.0</v>
+        <v>917678.0</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="G116" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H116" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I116" t="s">
+        <v>139</v>
+      </c>
+      <c r="J116" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" t="s">
+        <v>143</v>
+      </c>
+      <c r="L116" t="s">
+        <v>24</v>
+      </c>
+      <c r="M116" t="s">
         <v>19</v>
-      </c>
-      <c r="J116" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116" t="s">
-        <v>35</v>
-      </c>
-      <c r="L116" t="s">
-        <v>101</v>
-      </c>
-      <c r="M116" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="117">
@@ -5447,13 +5447,13 @@
         <v>196</v>
       </c>
       <c r="B117" t="n">
-        <v>869565.0</v>
+        <v>177319.0</v>
       </c>
       <c r="C117" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D117" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E117" t="s">
         <v>56</v>
@@ -5462,25 +5462,25 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
+        <v>138</v>
+      </c>
+      <c r="K117" t="s">
+        <v>145</v>
+      </c>
+      <c r="L117" t="s">
+        <v>28</v>
+      </c>
+      <c r="M117" t="s">
         <v>20</v>
-      </c>
-      <c r="I117" t="s">
-        <v>18</v>
-      </c>
-      <c r="J117" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" t="s">
-        <v>121</v>
-      </c>
-      <c r="L117" t="s">
-        <v>49</v>
-      </c>
-      <c r="M117" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="118">
@@ -5488,40 +5488,40 @@
         <v>197</v>
       </c>
       <c r="B118" t="n">
-        <v>448952.0</v>
+        <v>398581.0</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="E118" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="G118" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I118" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="J118" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="K118" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L118" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M118" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
@@ -5529,40 +5529,40 @@
         <v>198</v>
       </c>
       <c r="B119" t="n">
-        <v>497519.0</v>
+        <v>322913.0</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E119" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F119" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="H119" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="I119" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K119" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="L119" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M119" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120">
@@ -5570,40 +5570,40 @@
         <v>199</v>
       </c>
       <c r="B120" t="n">
-        <v>885176.0</v>
+        <v>853614.0</v>
       </c>
       <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s">
+        <v>129</v>
+      </c>
+      <c r="H120" t="s">
+        <v>125</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+      <c r="J120" t="s">
         <v>153</v>
       </c>
-      <c r="D120" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" t="s">
-        <v>41</v>
-      </c>
-      <c r="F120" t="s">
-        <v>51</v>
-      </c>
-      <c r="G120" t="s">
-        <v>66</v>
-      </c>
-      <c r="H120" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" t="s">
-        <v>30</v>
-      </c>
-      <c r="J120" t="s">
-        <v>38</v>
-      </c>
       <c r="K120" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="L120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M120" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
@@ -5611,40 +5611,40 @@
         <v>200</v>
       </c>
       <c r="B121" t="n">
-        <v>224237.0</v>
+        <v>861983.0</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H121" t="s">
+        <v>129</v>
+      </c>
+      <c r="I121" t="s">
+        <v>166</v>
+      </c>
+      <c r="J121" t="s">
+        <v>126</v>
+      </c>
+      <c r="K121" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" t="s">
+        <v>148</v>
+      </c>
+      <c r="M121" t="s">
         <v>20</v>
-      </c>
-      <c r="I121" t="s">
-        <v>29</v>
-      </c>
-      <c r="J121" t="s">
-        <v>76</v>
-      </c>
-      <c r="K121" t="s">
-        <v>39</v>
-      </c>
-      <c r="L121" t="s">
-        <v>78</v>
-      </c>
-      <c r="M121" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Students&Preferences(120).xlsx
+++ b/Students&Preferences(120).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -53,568 +53,556 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Ian King</t>
+    <t>Scott Daly</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>dancing to disco music</t>
+  </si>
+  <si>
     <t>starring in romantic comedies</t>
   </si>
   <si>
-    <t>Abstract views on singing torch songs</t>
-  </si>
-  <si>
-    <t>investing in real estate</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>directing action movies</t>
-  </si>
-  <si>
-    <t>directing indy movies</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>promoting democracy</t>
+  </si>
+  <si>
+    <t>Eugene O'Connor</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>enriching uranium</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Abstract views on designing modern buildings</t>
+  </si>
+  <si>
+    <t>Henry Barry</t>
+  </si>
+  <si>
+    <t>Self Specified Project</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Micheal McDonnell</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting for democracy</t>
+  </si>
+  <si>
+    <t>Abstract views on chasing old women</t>
   </si>
   <si>
     <t>singing pop songs</t>
   </si>
   <si>
-    <t>Benedict Burke</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting capitalism</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>seducing miltary officers</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>writing Hollywood movies</t>
-  </si>
-  <si>
-    <t>directing robot movies</t>
-  </si>
-  <si>
-    <t>Caleb Sweeney</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories,</t>
-  </si>
-  <si>
-    <t>selling military secrets</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>Myles Flynn</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Darragh Thompson</t>
-  </si>
-  <si>
-    <t>promoting political causes</t>
-  </si>
-  <si>
-    <t>Abstract views on ruling over subjects</t>
-  </si>
-  <si>
-    <t>Benjamin Duffy</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in indy movies</t>
-  </si>
-  <si>
-    <t>Edmond Lyons</t>
-  </si>
-  <si>
-    <t>Self Specified Project</t>
-  </si>
-  <si>
-    <t>Clayton O'Shea</t>
-  </si>
-  <si>
-    <t>Paul King</t>
-  </si>
-  <si>
-    <t>Kelvin O'Connell</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Odhran O'Dwyer</t>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Odhran Lynch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shopping for shoes</t>
+  </si>
+  <si>
+    <t>Abstract views on writing modern fiction</t>
+  </si>
+  <si>
+    <t>Oisin Kenny</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>Mathew Byrne</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>Warren Burke</t>
+  </si>
+  <si>
+    <t>Aaran Nolan</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>Philip MacDermott</t>
+  </si>
+  <si>
+    <t>Kelvin O'Neill</t>
+  </si>
+  <si>
+    <t>Myles Ryan</t>
+  </si>
+  <si>
+    <t>Abstract views on offering advice</t>
+  </si>
+  <si>
+    <t>Lewis Campbell</t>
+  </si>
+  <si>
+    <t>Auryn O'Leary</t>
+  </si>
+  <si>
+    <t>Turlough Brady</t>
+  </si>
+  <si>
+    <t>Emmet Thompson</t>
+  </si>
+  <si>
+    <t>Finn Smith</t>
+  </si>
+  <si>
+    <t>Dylan Doyle</t>
+  </si>
+  <si>
+    <t>Raymond Stewart</t>
+  </si>
+  <si>
+    <t>Cormac Dunne</t>
+  </si>
+  <si>
+    <t>Aron O'Connell</t>
+  </si>
+  <si>
+    <t>Lughaidh Byrne</t>
+  </si>
+  <si>
+    <t>Isaac Kelly</t>
+  </si>
+  <si>
+    <t>Eimhin Nolan</t>
+  </si>
+  <si>
+    <t>Caoimhin Robinson</t>
+  </si>
+  <si>
+    <t>Gary O'Rourke</t>
+  </si>
+  <si>
+    <t>Kian O'Farrell</t>
+  </si>
+  <si>
+    <t>Terence Magee</t>
+  </si>
+  <si>
+    <t>Sebastian White</t>
+  </si>
+  <si>
+    <t>Emmett Boyle</t>
+  </si>
+  <si>
+    <t>Taylor Bell</t>
+  </si>
+  <si>
+    <t>Jason Kane</t>
+  </si>
+  <si>
+    <t>Zachary Maguire</t>
+  </si>
+  <si>
+    <t>Mel Maher</t>
+  </si>
+  <si>
+    <t>Gavin O'Reilly</t>
+  </si>
+  <si>
+    <t>Cathal Clarke</t>
+  </si>
+  <si>
+    <t>Justin Molony</t>
+  </si>
+  <si>
+    <t>Colin Burns</t>
+  </si>
+  <si>
+    <t>Brendan O'Connor</t>
+  </si>
+  <si>
+    <t>Kyran O'Rourke</t>
+  </si>
+  <si>
+    <t>Karl O'Farrell</t>
+  </si>
+  <si>
+    <t>Killian Daly</t>
+  </si>
+  <si>
+    <t>Saul McGrath</t>
+  </si>
+  <si>
+    <t>Keelan MacDonald</t>
+  </si>
+  <si>
+    <t>William Kenny</t>
+  </si>
+  <si>
+    <t>Tyrone Donovan</t>
+  </si>
+  <si>
+    <t>Rian Hayes</t>
+  </si>
+  <si>
+    <t>Finbar Kenny</t>
+  </si>
+  <si>
+    <t>Theo McLoughlin</t>
+  </si>
+  <si>
+    <t>Tyreke Robinson</t>
+  </si>
+  <si>
+    <t>Karl Buckley</t>
+  </si>
+  <si>
+    <t>Fionan Higgins</t>
+  </si>
+  <si>
+    <t>Marcus Sweeney</t>
+  </si>
+  <si>
+    <t>Elliot Ryan</t>
+  </si>
+  <si>
+    <t>Aiden Higgins</t>
+  </si>
+  <si>
+    <t>Maxwell Smith</t>
+  </si>
+  <si>
+    <t>Ultan Walsh</t>
+  </si>
+  <si>
+    <t>Zachary O'Dwyer</t>
+  </si>
+  <si>
+    <t>Joey Hogan</t>
+  </si>
+  <si>
+    <t>Tyler O'Neill</t>
+  </si>
+  <si>
+    <t>Lukas McGrath</t>
+  </si>
+  <si>
+    <t>Kelvin MacDermott</t>
+  </si>
+  <si>
+    <t>Aaron O'Connor</t>
+  </si>
+  <si>
+    <t>Aidan Hughes</t>
+  </si>
+  <si>
+    <t>Elliott Keane</t>
+  </si>
+  <si>
+    <t>Pauric O'Rourke</t>
+  </si>
+  <si>
+    <t>Ferdia McCarthy</t>
+  </si>
+  <si>
+    <t>Ian O'Connell</t>
+  </si>
+  <si>
+    <t>Sam Lynch</t>
+  </si>
+  <si>
+    <t>Olan Cunningham</t>
+  </si>
+  <si>
+    <t>Felix Cunningham</t>
+  </si>
+  <si>
+    <t>Casey Dunne</t>
+  </si>
+  <si>
+    <t>Eoghan O'Shea</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>counting money</t>
+  </si>
+  <si>
+    <t>poisoning an apple</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>Abstract views on poisoning an apple</t>
+  </si>
+  <si>
+    <t>Corrie Wilson</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Eugene MacKenna</t>
+  </si>
+  <si>
+    <t>shagging spies</t>
+  </si>
+  <si>
+    <t>Abstract views on foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Conal Lyons</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Abstract views on flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Kenan O'Doherty</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>Wesley O'Farrell</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>hacking into computers</t>
+  </si>
+  <si>
+    <t>Ralph MacDonald</t>
+  </si>
+  <si>
+    <t>releasing the hounds</t>
+  </si>
+  <si>
+    <t>Abstract views on playing pranks</t>
+  </si>
+  <si>
+    <t>Jordan MacMahon</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>Darrell O'Dwyer</t>
+  </si>
+  <si>
+    <t>Ultan Moran</t>
+  </si>
+  <si>
+    <t>Darren Moran</t>
+  </si>
+  <si>
+    <t>Clayton O'Keeffe</t>
+  </si>
+  <si>
+    <t>Bryan McDonnell</t>
+  </si>
+  <si>
+    <t>Abstract views on  shopping for shoes</t>
+  </si>
+  <si>
+    <t>John Maguire</t>
+  </si>
+  <si>
+    <t>Sean Nolan</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>Joshua MacNamara</t>
+  </si>
+  <si>
+    <t>Jerome Foley</t>
+  </si>
+  <si>
+    <t>Laurence Donovan</t>
+  </si>
+  <si>
+    <t>Fergal MacDonald</t>
+  </si>
+  <si>
+    <t>Edmund Maher</t>
+  </si>
+  <si>
+    <t>Gabriel O'Mahony</t>
+  </si>
+  <si>
+    <t>Trevor O'Shea</t>
+  </si>
+  <si>
+    <t>Jerry Quinn</t>
+  </si>
+  <si>
+    <t>Cianan Burke</t>
+  </si>
+  <si>
+    <t>Mohammad O'Keeffe</t>
+  </si>
+  <si>
+    <t>Mitchell Cullen</t>
+  </si>
+  <si>
+    <t>Brion Duffy</t>
+  </si>
+  <si>
+    <t>crooning love songs</t>
+  </si>
+  <si>
+    <t>Keith Graham</t>
+  </si>
+  <si>
+    <t>Graham Griffin</t>
+  </si>
+  <si>
+    <t>Devin Kennedy</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Corey Barry</t>
+  </si>
+  <si>
+    <t>Bailey Reid</t>
+  </si>
+  <si>
+    <t>Martin Cunningham</t>
+  </si>
+  <si>
+    <t>Lorcan Graham</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>Dermot Boyle</t>
   </si>
   <si>
     <t>Abstract views on promoting conservative values</t>
   </si>
   <si>
-    <t>Mohammed Flynn</t>
-  </si>
-  <si>
-    <t>Frank MacKenna</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Jason Brady</t>
-  </si>
-  <si>
-    <t>Jesse Donnelly</t>
-  </si>
-  <si>
-    <t>Finn Burns</t>
-  </si>
-  <si>
-    <t>Rory O'Sullivan</t>
-  </si>
-  <si>
-    <t>Ricky Collins</t>
-  </si>
-  <si>
-    <t>Dillon O'Shea</t>
-  </si>
-  <si>
-    <t>developing real estate</t>
-  </si>
-  <si>
-    <t>Arthur Maher</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Aran Burke</t>
-  </si>
-  <si>
-    <t>Nathaniel Doyle</t>
-  </si>
-  <si>
-    <t>Marco Cunningham</t>
-  </si>
-  <si>
-    <t>Robert Molony</t>
-  </si>
-  <si>
-    <t>Rory Thompson</t>
-  </si>
-  <si>
-    <t>Shay Burke</t>
-  </si>
-  <si>
-    <t>Harold Kelly</t>
-  </si>
-  <si>
-    <t>Arron MacDermott</t>
-  </si>
-  <si>
-    <t>Shane Whelan</t>
-  </si>
-  <si>
-    <t>Ruadhan Regan</t>
-  </si>
-  <si>
-    <t>Dominic Casey</t>
-  </si>
-  <si>
-    <t>Caoimhin Boyle</t>
-  </si>
-  <si>
-    <t>Colin MacNamara</t>
-  </si>
-  <si>
-    <t>Owen Hogan</t>
-  </si>
-  <si>
-    <t>Corey Ward</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Josh White</t>
-  </si>
-  <si>
-    <t>Jeffrey O'Reilly</t>
-  </si>
-  <si>
-    <t>Danny MacDermott</t>
-  </si>
-  <si>
-    <t>Fionnan Kennedy</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Dean Griffin</t>
-  </si>
-  <si>
-    <t>Conal Walsh</t>
-  </si>
-  <si>
-    <t>Dane Ward</t>
-  </si>
-  <si>
-    <t>Tim Hogan</t>
-  </si>
-  <si>
-    <t>Jonathan Doyle</t>
-  </si>
-  <si>
-    <t>Turlough Griffin</t>
-  </si>
-  <si>
-    <t>Marco O'Connor</t>
-  </si>
-  <si>
-    <t>Danny Smith</t>
-  </si>
-  <si>
-    <t>Mathew O'Doherty</t>
-  </si>
-  <si>
-    <t>Conall Graham</t>
-  </si>
-  <si>
-    <t>Micheal Byrne</t>
-  </si>
-  <si>
-    <t>Donal Boyle</t>
-  </si>
-  <si>
-    <t>Jonathan Buckley</t>
-  </si>
-  <si>
-    <t>Erin Barry</t>
-  </si>
-  <si>
-    <t>Julian McGrath</t>
-  </si>
-  <si>
-    <t>Antonio Smith</t>
-  </si>
-  <si>
-    <t>Raymond Daly</t>
-  </si>
-  <si>
-    <t>Damien O'Reilly</t>
-  </si>
-  <si>
-    <t>Tyreke Graham</t>
-  </si>
-  <si>
-    <t>Kyle Nolan</t>
-  </si>
-  <si>
-    <t>Luke MacDonald</t>
-  </si>
-  <si>
-    <t>Owen O'Doherty</t>
-  </si>
-  <si>
-    <t>Finnian Doyle</t>
-  </si>
-  <si>
-    <t>Conrad Kane</t>
-  </si>
-  <si>
-    <t>Daithi McCarthy</t>
-  </si>
-  <si>
-    <t>Leo O'Keeffe</t>
-  </si>
-  <si>
-    <t>Lukas Quinn</t>
-  </si>
-  <si>
-    <t>Jeremy Griffin</t>
-  </si>
-  <si>
-    <t>Micahel Foley</t>
-  </si>
-  <si>
-    <t>Keith Kelly</t>
-  </si>
-  <si>
-    <t>Erin Flanagan</t>
-  </si>
-  <si>
-    <t>Joseph Daly</t>
-  </si>
-  <si>
-    <t>Maurice Clarke</t>
-  </si>
-  <si>
-    <t>Ferdia McLoughlin</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>inventing lies</t>
-  </si>
-  <si>
-    <t>chasing rabbits</t>
-  </si>
-  <si>
-    <t>crushing dissent</t>
-  </si>
-  <si>
-    <t>Albert Hughes</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Abstract views on  climbing social ladders</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders</t>
-  </si>
-  <si>
-    <t>Kalum Martin</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>Ruairi Bell</t>
-  </si>
-  <si>
-    <t>Abstract views on disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>turning it up to 11</t>
-  </si>
-  <si>
-    <t>Evan MacDermott</t>
-  </si>
-  <si>
-    <t>Abstract views on chasing rabbits</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Luca Thompson</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>Regan Duffy</t>
-  </si>
-  <si>
-    <t>Davin O'Rourke</t>
-  </si>
-  <si>
-    <t>Abstract views on evading mercenaries</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>Abstract views on standing up to bullies</t>
-  </si>
-  <si>
-    <t>Donnchadh Hughes</t>
-  </si>
-  <si>
-    <t>Declan O'Neill</t>
-  </si>
-  <si>
-    <t>Brendan Graham</t>
-  </si>
-  <si>
-    <t>developing political strategies</t>
-  </si>
-  <si>
-    <t>Denis O'Rourke</t>
-  </si>
-  <si>
-    <t>Cormac Campbell</t>
-  </si>
-  <si>
-    <t>Charles White</t>
-  </si>
-  <si>
-    <t>Luca Molony</t>
-  </si>
-  <si>
-    <t>casting magic spells</t>
-  </si>
-  <si>
-    <t>Robin Ryan</t>
-  </si>
-  <si>
-    <t>gossiping with galpals</t>
-  </si>
-  <si>
-    <t>Felix Wilson</t>
-  </si>
-  <si>
-    <t>concocting magic potions</t>
-  </si>
-  <si>
-    <t>Terence O'Leary</t>
-  </si>
-  <si>
-    <t>Gary Brown</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Kaylem Moore</t>
-  </si>
-  <si>
-    <t>Lewis Cullen</t>
-  </si>
-  <si>
-    <t>Devon O'Neill</t>
-  </si>
-  <si>
-    <t>Emmanuel O'Doherty</t>
-  </si>
-  <si>
-    <t>Abstract views on singing parody songs</t>
-  </si>
-  <si>
-    <t>Micheal Moore</t>
-  </si>
-  <si>
-    <t>Andrew Burke</t>
-  </si>
-  <si>
-    <t>Philip Higgins</t>
-  </si>
-  <si>
-    <t>Wesley Burns</t>
-  </si>
-  <si>
-    <t>Johnny Connolly</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>Ricky King</t>
-  </si>
-  <si>
-    <t>Ethon Donnelly</t>
-  </si>
-  <si>
-    <t>Maximillian Donovan</t>
-  </si>
-  <si>
-    <t>Ruadhan O'Keeffe</t>
-  </si>
-  <si>
-    <t>Raymond Lyons</t>
-  </si>
-  <si>
-    <t>Cailum MacDermott</t>
-  </si>
-  <si>
-    <t>Bernard McLoughlin</t>
-  </si>
-  <si>
-    <t>Shay Hughes</t>
-  </si>
-  <si>
-    <t>Ros Barry</t>
-  </si>
-  <si>
-    <t>Lewis Mullan</t>
-  </si>
-  <si>
-    <t>Dan Lynch</t>
-  </si>
-  <si>
-    <t>Kelvin Ryan</t>
-  </si>
-  <si>
-    <t>Larry Doyle</t>
-  </si>
-  <si>
-    <t>Finbar Burns</t>
-  </si>
-  <si>
-    <t>Zachary O'Doherty</t>
-  </si>
-  <si>
-    <t>Alexander O'Callaghan</t>
-  </si>
-  <si>
-    <t>Eoghan O'Connell</t>
-  </si>
-  <si>
-    <t>Rian Hughes</t>
-  </si>
-  <si>
-    <t>Charlie Cullen</t>
-  </si>
-  <si>
-    <t>Ashley Higgins</t>
+    <t>Tony Brown</t>
+  </si>
+  <si>
+    <t>Lughaidh Griffin</t>
+  </si>
+  <si>
+    <t>Alan Molony</t>
+  </si>
+  <si>
+    <t>Tadgh Donnelly</t>
+  </si>
+  <si>
+    <t>Darrell Donnelly</t>
+  </si>
+  <si>
+    <t>Odhran Maher</t>
+  </si>
+  <si>
+    <t>Reece Stewart</t>
+  </si>
+  <si>
+    <t>Kyran MacDonald</t>
+  </si>
+  <si>
+    <t>Dale Robinson</t>
+  </si>
+  <si>
+    <t>Dominick McLoughlin</t>
+  </si>
+  <si>
+    <t>Kieron Brady</t>
+  </si>
+  <si>
+    <t>Andrea Doyle</t>
+  </si>
+  <si>
+    <t>Eanna Kane</t>
   </si>
 </sst>
 </file>
@@ -671,19 +659,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="44.82421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="44.82421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="42.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="42.0078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.1640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="47.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="42.0078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="47.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="47.1640625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="47.1640625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="47.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -732,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>686491.0</v>
+        <v>847759.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -762,256 +750,256 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>652459.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="n">
-        <v>491455.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>474343.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="n">
-        <v>173293.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="n">
+        <v>824452.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="n">
-        <v>887715.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
         <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="n">
+        <v>884343.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="n">
-        <v>584921.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="n">
+        <v>651728.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="n">
-        <v>353812.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="n">
+        <v>125729.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="n">
-        <v>225375.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1019,40 +1007,40 @@
         <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>267589.0</v>
+        <v>517974.0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1060,81 +1048,81 @@
         <v>52</v>
       </c>
       <c r="B10" t="n">
-        <v>362943.0</v>
+        <v>859439.0</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="n">
-        <v>493221.0</v>
+        <v>125816.0</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1142,81 +1130,81 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>319776.0</v>
+        <v>235618.0</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="n">
+        <v>214846.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="n">
-        <v>533122.0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1224,816 +1212,816 @@
         <v>58</v>
       </c>
       <c r="B14" t="n">
-        <v>716822.0</v>
+        <v>386486.0</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="n">
-        <v>699693.0</v>
+        <v>972127.0</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
         <v>32</v>
       </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="n">
-        <v>771421.0</v>
+        <v>737526.0</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="n">
-        <v>623374.0</v>
+        <v>539687.0</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
-        <v>564923.0</v>
+        <v>147394.0</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n">
-        <v>122187.0</v>
+        <v>594245.0</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="n">
-        <v>869777.0</v>
+        <v>688513.0</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="n">
-        <v>785963.0</v>
+        <v>312251.0</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" t="s">
         <v>37</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" t="n">
-        <v>863427.0</v>
+        <v>264458.0</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" t="n">
-        <v>729648.0</v>
+        <v>852169.0</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" t="n">
-        <v>588694.0</v>
+        <v>575948.0</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="n">
-        <v>889258.0</v>
+        <v>321558.0</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
         <v>22</v>
       </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>563731.0</v>
+        <v>396823.0</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" t="n">
-        <v>695339.0</v>
+        <v>597395.0</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
         <v>43</v>
       </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" t="s">
-        <v>59</v>
-      </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" t="n">
-        <v>145473.0</v>
+        <v>384833.0</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" t="s">
-        <v>30</v>
-      </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" t="n">
-        <v>859566.0</v>
+        <v>979318.0</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
         <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B30" t="n">
-        <v>852557.0</v>
+        <v>796419.0</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B31" t="n">
-        <v>149412.0</v>
+        <v>149469.0</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" t="n">
-        <v>618419.0</v>
+        <v>345443.0</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" t="n">
-        <v>779824.0</v>
+        <v>234955.0</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
         <v>17</v>
       </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" t="s">
-        <v>34</v>
-      </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
@@ -2041,51 +2029,51 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" t="n">
-        <v>223134.0</v>
+        <v>483741.0</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B35" t="n">
-        <v>768853.0</v>
+        <v>551976.0</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2094,695 +2082,695 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
         <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" t="n">
-        <v>949368.0</v>
+        <v>148626.0</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
         <v>19</v>
       </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" t="n">
-        <v>589242.0</v>
+        <v>824624.0</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" t="n">
-        <v>577437.0</v>
+        <v>761474.0</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B39" t="n">
-        <v>554728.0</v>
+        <v>388231.0</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B40" t="n">
-        <v>289263.0</v>
+        <v>945728.0</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
         <v>22</v>
       </c>
-      <c r="J40" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" t="s">
-        <v>24</v>
-      </c>
       <c r="L40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B41" t="n">
-        <v>949228.0</v>
+        <v>127894.0</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
         <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B42" t="n">
-        <v>168458.0</v>
+        <v>976419.0</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
         <v>46</v>
       </c>
-      <c r="I42" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" t="s">
-        <v>56</v>
-      </c>
       <c r="M42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
-        <v>514727.0</v>
+        <v>173445.0</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
         <v>26</v>
       </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>68</v>
-      </c>
       <c r="K43" t="s">
         <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
-        <v>532176.0</v>
+        <v>583829.0</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B45" t="n">
-        <v>875879.0</v>
+        <v>251234.0</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B46" t="n">
-        <v>989451.0</v>
+        <v>716698.0</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
         <v>17</v>
       </c>
-      <c r="I46" t="s">
-        <v>54</v>
-      </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
         <v>32</v>
-      </c>
-      <c r="M46" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B47" t="n">
-        <v>722668.0</v>
+        <v>775934.0</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
         <v>27</v>
       </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" t="s">
-        <v>48</v>
-      </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B48" t="n">
-        <v>875383.0</v>
+        <v>699357.0</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B49" t="n">
-        <v>983165.0</v>
+        <v>532398.0</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
         <v>17</v>
       </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" t="s">
         <v>22</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B50" t="n">
-        <v>752227.0</v>
+        <v>956658.0</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
         <v>50</v>
       </c>
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B51" t="n">
-        <v>729333.0</v>
+        <v>432327.0</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
         <v>34</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
         <v>26</v>
-      </c>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B52" t="n">
-        <v>562824.0</v>
+        <v>935741.0</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2791,244 +2779,244 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" t="s">
         <v>34</v>
       </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" t="s">
-        <v>34</v>
-      </c>
-      <c r="K52" t="s">
-        <v>56</v>
-      </c>
       <c r="L52" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B53" t="n">
-        <v>574631.0</v>
+        <v>586589.0</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="M53" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" t="n">
-        <v>445117.0</v>
+        <v>675119.0</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
         <v>29</v>
       </c>
-      <c r="G54" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B55" t="n">
-        <v>884292.0</v>
+        <v>164727.0</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" t="s">
         <v>46</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B56" t="n">
-        <v>588777.0</v>
+        <v>961972.0</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B57" t="n">
-        <v>833645.0</v>
+        <v>232893.0</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" t="s">
         <v>40</v>
       </c>
-      <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>37</v>
-      </c>
       <c r="M57" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B58" t="n">
-        <v>372278.0</v>
+        <v>271742.0</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -3037,1504 +3025,1504 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L58" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B59" t="n">
-        <v>973614.0</v>
+        <v>815365.0</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B60" t="n">
-        <v>617649.0</v>
+        <v>112588.0</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" t="s">
         <v>34</v>
       </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" t="s">
-        <v>43</v>
-      </c>
-      <c r="K60" t="s">
-        <v>48</v>
-      </c>
       <c r="L60" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B61" t="n">
-        <v>915359.0</v>
+        <v>336623.0</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
         <v>50</v>
       </c>
-      <c r="E61" t="s">
+      <c r="L61" t="s">
         <v>34</v>
       </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="M61" t="s">
         <v>32</v>
-      </c>
-      <c r="H61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" t="s">
-        <v>46</v>
-      </c>
-      <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" t="s">
-        <v>47</v>
-      </c>
-      <c r="M61" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B62" t="n">
-        <v>824397.0</v>
+        <v>544346.0</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
         <v>32</v>
       </c>
-      <c r="F62" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>56</v>
-      </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B63" t="n">
-        <v>559939.0</v>
+        <v>747221.0</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J63" t="s">
         <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L63" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B64" t="n">
-        <v>712665.0</v>
+        <v>217716.0</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" t="s">
         <v>29</v>
       </c>
-      <c r="H64" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" t="s">
-        <v>48</v>
-      </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B65" t="n">
-        <v>786133.0</v>
+        <v>369735.0</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M65" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B66" t="n">
-        <v>732633.0</v>
+        <v>156818.0</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="K66" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" t="s">
-        <v>23</v>
-      </c>
       <c r="M66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B67" t="n">
-        <v>639676.0</v>
+        <v>738764.0</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="L67" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M67" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B68" t="n">
-        <v>985796.0</v>
+        <v>353175.0</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="L68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B69" t="n">
-        <v>987611.0</v>
+        <v>843426.0</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
         <v>34</v>
       </c>
-      <c r="H69" t="s">
-        <v>30</v>
-      </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B70" t="n">
-        <v>547187.0</v>
+        <v>817369.0</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
         <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s">
-        <v>31</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" t="s">
-        <v>56</v>
-      </c>
-      <c r="L70" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B71" t="n">
-        <v>822425.0</v>
+        <v>725265.0</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B72" t="n">
-        <v>995558.0</v>
+        <v>861886.0</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K72" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M72" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B73" t="n">
-        <v>716676.0</v>
+        <v>378235.0</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
         <v>17</v>
       </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
-        <v>68</v>
-      </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L73" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="n">
+        <v>693318.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
         <v>123</v>
       </c>
-      <c r="B74" t="n">
-        <v>257939.0</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="I74" t="s">
         <v>124</v>
       </c>
-      <c r="D74" t="s">
+      <c r="J74" t="s">
         <v>125</v>
       </c>
-      <c r="E74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="K74" t="s">
         <v>126</v>
       </c>
-      <c r="G74" t="s">
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" t="s">
         <v>127</v>
-      </c>
-      <c r="H74" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" t="s">
-        <v>128</v>
-      </c>
-      <c r="K74" t="s">
-        <v>129</v>
-      </c>
-      <c r="L74" t="s">
-        <v>130</v>
-      </c>
-      <c r="M74" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" t="n">
+        <v>943423.0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>130</v>
+      </c>
+      <c r="J75" t="s">
+        <v>122</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
         <v>131</v>
       </c>
-      <c r="B75" t="n">
-        <v>114728.0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" t="s">
-        <v>50</v>
-      </c>
-      <c r="E75" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s">
-        <v>132</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s">
-        <v>133</v>
-      </c>
-      <c r="I75" t="s">
-        <v>43</v>
-      </c>
-      <c r="J75" t="s">
-        <v>134</v>
-      </c>
-      <c r="K75" t="s">
-        <v>135</v>
-      </c>
-      <c r="L75" t="s">
-        <v>34</v>
-      </c>
       <c r="M75" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B76" t="n">
-        <v>858587.0</v>
+        <v>349536.0</v>
       </c>
       <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" t="s">
+        <v>42</v>
+      </c>
+      <c r="I76" t="s">
+        <v>133</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" t="s">
+        <v>134</v>
+      </c>
+      <c r="L76" t="s">
         <v>124</v>
       </c>
-      <c r="D76" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" t="s">
-        <v>139</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s">
-        <v>140</v>
-      </c>
-      <c r="I76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J76" t="s">
-        <v>28</v>
-      </c>
-      <c r="K76" t="s">
-        <v>47</v>
-      </c>
-      <c r="L76" t="s">
-        <v>134</v>
-      </c>
       <c r="M76" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B77" t="n">
-        <v>184883.0</v>
+        <v>539454.0</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="G77" t="s">
         <v>129</v>
       </c>
       <c r="H77" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K77" t="s">
+        <v>121</v>
+      </c>
+      <c r="L77" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" t="s">
         <v>20</v>
-      </c>
-      <c r="J77" t="s">
-        <v>143</v>
-      </c>
-      <c r="K77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L77" t="s">
-        <v>28</v>
-      </c>
-      <c r="M77" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B78" t="n">
-        <v>845384.0</v>
+        <v>327939.0</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G78" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="K78" t="s">
+        <v>130</v>
+      </c>
+      <c r="L78" t="s">
         <v>136</v>
       </c>
-      <c r="L78" t="s">
-        <v>146</v>
-      </c>
       <c r="M78" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B79" t="n">
-        <v>455183.0</v>
+        <v>767366.0</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="G79" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K79" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M79" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B80" t="n">
-        <v>116771.0</v>
+        <v>958645.0</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I80" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="J80" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="K80" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L80" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="M80" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B81" t="n">
-        <v>915533.0</v>
+        <v>532681.0</v>
       </c>
       <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" t="s">
         <v>124</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
+        <v>122</v>
+      </c>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>147</v>
+      </c>
+      <c r="J81" t="s">
+        <v>131</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" t="s">
         <v>148</v>
       </c>
-      <c r="E81" t="s">
-        <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
-      </c>
-      <c r="G81" t="s">
-        <v>153</v>
-      </c>
-      <c r="H81" t="s">
-        <v>129</v>
-      </c>
-      <c r="I81" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" t="s">
-        <v>89</v>
-      </c>
-      <c r="K81" t="s">
-        <v>59</v>
-      </c>
-      <c r="L81" t="s">
-        <v>140</v>
-      </c>
       <c r="M81" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B82" t="n">
-        <v>428182.0</v>
+        <v>329855.0</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s">
+        <v>147</v>
+      </c>
+      <c r="I82" t="s">
         <v>37</v>
       </c>
-      <c r="E82" t="s">
-        <v>134</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="J82" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" t="s">
+        <v>53</v>
+      </c>
+      <c r="L82" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" t="s">
         <v>125</v>
-      </c>
-      <c r="G82" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s">
-        <v>89</v>
-      </c>
-      <c r="I82" t="s">
-        <v>140</v>
-      </c>
-      <c r="J82" t="s">
-        <v>40</v>
-      </c>
-      <c r="K82" t="s">
-        <v>136</v>
-      </c>
-      <c r="L82" t="s">
-        <v>127</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B83" t="n">
-        <v>343237.0</v>
+        <v>997979.0</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I83" t="s">
         <v>47</v>
       </c>
       <c r="J83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K83" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="L83" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="M83" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B84" t="n">
-        <v>277852.0</v>
+        <v>463747.0</v>
       </c>
       <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>147</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+      <c r="J84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>42</v>
+      </c>
+      <c r="L84" t="s">
+        <v>123</v>
+      </c>
+      <c r="M84" t="s">
         <v>124</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F84" t="s">
-        <v>157</v>
-      </c>
-      <c r="G84" t="s">
-        <v>151</v>
-      </c>
-      <c r="H84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" t="s">
-        <v>138</v>
-      </c>
-      <c r="J84" t="s">
-        <v>136</v>
-      </c>
-      <c r="K84" t="s">
-        <v>132</v>
-      </c>
-      <c r="L84" t="s">
-        <v>89</v>
-      </c>
-      <c r="M84" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B85" t="n">
-        <v>148463.0</v>
+        <v>664249.0</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G85" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="H85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I85" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="L85" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B86" t="n">
-        <v>932479.0</v>
+        <v>374818.0</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L86" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M86" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B87" t="n">
-        <v>993881.0</v>
+        <v>424569.0</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J87" t="s">
         <v>136</v>
       </c>
       <c r="K87" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="M87" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B88" t="n">
-        <v>795282.0</v>
+        <v>637114.0</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I88" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K88" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="L88" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M88" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B89" t="n">
-        <v>932685.0</v>
+        <v>895999.0</v>
       </c>
       <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" t="s">
         <v>124</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" t="s">
-        <v>129</v>
-      </c>
-      <c r="G89" t="s">
-        <v>164</v>
       </c>
       <c r="H89" t="s">
         <v>134</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="J89" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="K89" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L89" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="M89" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B90" t="n">
-        <v>276638.0</v>
+        <v>153462.0</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="I90" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="J90" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="L90" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M90" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B91" t="n">
-        <v>523585.0</v>
+        <v>691994.0</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G91" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+      <c r="J91" t="s">
+        <v>47</v>
+      </c>
+      <c r="K91" t="s">
         <v>20</v>
       </c>
-      <c r="H91" t="s">
-        <v>135</v>
-      </c>
-      <c r="I91" t="s">
-        <v>125</v>
-      </c>
-      <c r="J91" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s">
-        <v>32</v>
-      </c>
       <c r="L91" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M91" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B92" t="n">
-        <v>947439.0</v>
+        <v>312423.0</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="J92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K92" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="L92" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M92" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B93" t="n">
-        <v>946832.0</v>
+        <v>348932.0</v>
       </c>
       <c r="C93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>137</v>
+      </c>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" t="s">
         <v>124</v>
       </c>
-      <c r="D93" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" t="s">
-        <v>127</v>
-      </c>
-      <c r="F93" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" t="s">
-        <v>140</v>
-      </c>
-      <c r="H93" t="s">
-        <v>130</v>
-      </c>
-      <c r="I93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J93" t="s">
-        <v>59</v>
-      </c>
-      <c r="K93" t="s">
-        <v>136</v>
-      </c>
       <c r="L93" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M93" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B94" t="n">
-        <v>846851.0</v>
+        <v>895528.0</v>
       </c>
       <c r="C94" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
         <v>124</v>
       </c>
-      <c r="D94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" t="s">
-        <v>56</v>
-      </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>137</v>
+      </c>
+      <c r="J94" t="s">
         <v>136</v>
       </c>
-      <c r="H94" t="s">
-        <v>44</v>
-      </c>
-      <c r="I94" t="s">
-        <v>135</v>
-      </c>
-      <c r="J94" t="s">
-        <v>47</v>
-      </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L94" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="M94" t="s">
         <v>127</v>
@@ -4542,655 +4530,655 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B95" t="n">
-        <v>144778.0</v>
+        <v>281659.0</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="I95" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J95" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="K95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L95" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M95" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B96" t="n">
-        <v>627326.0</v>
+        <v>468621.0</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" t="s">
+        <v>53</v>
+      </c>
+      <c r="I96" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96" t="s">
+        <v>122</v>
+      </c>
+      <c r="K96" t="s">
+        <v>34</v>
+      </c>
+      <c r="L96" t="s">
+        <v>123</v>
+      </c>
+      <c r="M96" t="s">
         <v>20</v>
-      </c>
-      <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" t="s">
-        <v>146</v>
-      </c>
-      <c r="I96" t="s">
-        <v>174</v>
-      </c>
-      <c r="J96" t="s">
-        <v>56</v>
-      </c>
-      <c r="K96" t="s">
-        <v>145</v>
-      </c>
-      <c r="L96" t="s">
-        <v>164</v>
-      </c>
-      <c r="M96" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B97" t="n">
-        <v>426841.0</v>
+        <v>838132.0</v>
       </c>
       <c r="C97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" t="s">
         <v>124</v>
       </c>
-      <c r="D97" t="s">
-        <v>146</v>
-      </c>
-      <c r="E97" t="s">
-        <v>148</v>
-      </c>
-      <c r="F97" t="s">
-        <v>153</v>
-      </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H97" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J97" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="K97" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B98" t="n">
-        <v>724479.0</v>
+        <v>824292.0</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I98" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J98" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="K98" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L98" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="M98" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B99" t="n">
-        <v>885322.0</v>
+        <v>681549.0</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="H99" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J99" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="K99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L99" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="M99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B100" t="n">
-        <v>865528.0</v>
+        <v>499597.0</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="G100" t="s">
+        <v>125</v>
+      </c>
+      <c r="H100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" t="s">
+        <v>122</v>
+      </c>
+      <c r="J100" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" t="s">
         <v>34</v>
       </c>
-      <c r="H100" t="s">
-        <v>128</v>
-      </c>
-      <c r="I100" t="s">
-        <v>153</v>
-      </c>
-      <c r="J100" t="s">
-        <v>146</v>
-      </c>
-      <c r="K100" t="s">
-        <v>20</v>
-      </c>
       <c r="L100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M100" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B101" t="n">
-        <v>829385.0</v>
+        <v>882689.0</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J101" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K101" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="L101" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="M101" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B102" t="n">
-        <v>549322.0</v>
+        <v>258934.0</v>
       </c>
       <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+      <c r="J102" t="s">
         <v>124</v>
       </c>
-      <c r="D102" t="s">
-        <v>50</v>
-      </c>
-      <c r="E102" t="s">
-        <v>40</v>
-      </c>
-      <c r="F102" t="s">
-        <v>169</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" t="s">
-        <v>28</v>
-      </c>
-      <c r="I102" t="s">
-        <v>180</v>
-      </c>
-      <c r="J102" t="s">
-        <v>143</v>
-      </c>
       <c r="K102" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="L102" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="M102" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B103" t="n">
-        <v>557652.0</v>
+        <v>412698.0</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" t="s">
         <v>136</v>
       </c>
-      <c r="G103" t="s">
-        <v>89</v>
-      </c>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="J103" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K103" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="L103" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M103" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B104" t="n">
-        <v>562499.0</v>
+        <v>519323.0</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H104" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K104" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L104" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="M104" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B105" t="n">
-        <v>159343.0</v>
+        <v>658187.0</v>
       </c>
       <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" t="s">
+        <v>148</v>
+      </c>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s">
         <v>124</v>
       </c>
-      <c r="D105" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" t="s">
-        <v>143</v>
-      </c>
-      <c r="F105" t="s">
-        <v>32</v>
-      </c>
-      <c r="G105" t="s">
-        <v>56</v>
-      </c>
-      <c r="H105" t="s">
-        <v>89</v>
-      </c>
-      <c r="I105" t="s">
-        <v>24</v>
-      </c>
       <c r="J105" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K105" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L105" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="M105" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B106" t="n">
-        <v>997946.0</v>
+        <v>439464.0</v>
       </c>
       <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" t="s">
         <v>124</v>
       </c>
-      <c r="D106" t="s">
-        <v>50</v>
-      </c>
-      <c r="E106" t="s">
-        <v>46</v>
-      </c>
-      <c r="F106" t="s">
-        <v>151</v>
-      </c>
       <c r="G106" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="H106" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I106" t="s">
+        <v>29</v>
+      </c>
+      <c r="J106" t="s">
         <v>136</v>
       </c>
-      <c r="J106" t="s">
-        <v>140</v>
-      </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L106" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="M106" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B107" t="n">
-        <v>978878.0</v>
+        <v>711641.0</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G107" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="H107" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I107" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="K107" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="M107" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B108" t="n">
-        <v>414115.0</v>
+        <v>169882.0</v>
       </c>
       <c r="C108" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s">
+        <v>123</v>
+      </c>
+      <c r="I108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J108" t="s">
         <v>124</v>
       </c>
-      <c r="D108" t="s">
-        <v>174</v>
-      </c>
-      <c r="E108" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>132</v>
-      </c>
-      <c r="H108" t="s">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s">
-        <v>180</v>
-      </c>
-      <c r="J108" t="s">
-        <v>129</v>
-      </c>
       <c r="K108" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L108" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="M108" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B109" t="n">
-        <v>355598.0</v>
+        <v>739924.0</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="I109" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="J109" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="K109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M109" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B110" t="n">
-        <v>547573.0</v>
+        <v>925188.0</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E110" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G110" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="H110" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I110" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J110" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="K110" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="L110" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="M110" t="s">
         <v>34</v>
@@ -5198,453 +5186,453 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B111" t="n">
-        <v>737875.0</v>
+        <v>369165.0</v>
       </c>
       <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
         <v>124</v>
       </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="H111" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J111" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="K111" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="L111" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="M111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B112" t="n">
-        <v>355351.0</v>
+        <v>956634.0</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G112" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" t="s">
+        <v>122</v>
+      </c>
+      <c r="J112" t="s">
+        <v>123</v>
+      </c>
+      <c r="K112" t="s">
+        <v>21</v>
+      </c>
+      <c r="L112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M112" t="s">
         <v>125</v>
-      </c>
-      <c r="H112" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" t="s">
-        <v>134</v>
-      </c>
-      <c r="J112" t="s">
-        <v>68</v>
-      </c>
-      <c r="K112" t="s">
-        <v>174</v>
-      </c>
-      <c r="L112" t="s">
-        <v>152</v>
-      </c>
-      <c r="M112" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B113" t="n">
-        <v>329422.0</v>
+        <v>971631.0</v>
       </c>
       <c r="C113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" t="s">
+        <v>176</v>
+      </c>
+      <c r="E113" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" t="s">
+        <v>136</v>
+      </c>
+      <c r="G113" t="s">
+        <v>123</v>
+      </c>
+      <c r="H113" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s">
+        <v>122</v>
+      </c>
+      <c r="J113" t="s">
         <v>124</v>
       </c>
-      <c r="D113" t="s">
-        <v>56</v>
-      </c>
-      <c r="E113" t="s">
-        <v>180</v>
-      </c>
-      <c r="F113" t="s">
-        <v>127</v>
-      </c>
-      <c r="G113" t="s">
-        <v>46</v>
-      </c>
-      <c r="H113" t="s">
-        <v>20</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
+        <v>181</v>
+      </c>
+      <c r="L113" t="s">
         <v>126</v>
       </c>
-      <c r="J113" t="s">
-        <v>169</v>
-      </c>
-      <c r="K113" t="s">
-        <v>28</v>
-      </c>
-      <c r="L113" t="s">
-        <v>145</v>
-      </c>
       <c r="M113" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B114" t="n">
-        <v>137739.0</v>
+        <v>766471.0</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I114" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="J114" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="K114" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L114" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="M114" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B115" t="n">
-        <v>964917.0</v>
+        <v>758241.0</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F115" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="H115" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I115" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J115" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="K115" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="L115" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M115" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B116" t="n">
-        <v>917678.0</v>
+        <v>365468.0</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G116" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="I116" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="J116" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="K116" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="L116" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B117" t="n">
-        <v>177319.0</v>
+        <v>613877.0</v>
       </c>
       <c r="C117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" t="s">
         <v>124</v>
       </c>
-      <c r="D117" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" t="s">
-        <v>56</v>
-      </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="J117" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="K117" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="L117" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M117" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B118" t="n">
-        <v>398581.0</v>
+        <v>634274.0</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="H118" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="I118" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="J118" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="K118" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L118" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B119" t="n">
-        <v>322913.0</v>
+        <v>691584.0</v>
       </c>
       <c r="C119" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D119" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="G119" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="J119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K119" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L119" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M119" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B120" t="n">
-        <v>853614.0</v>
+        <v>912862.0</v>
       </c>
       <c r="C120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" t="s">
         <v>124</v>
       </c>
-      <c r="D120" t="s">
-        <v>32</v>
-      </c>
-      <c r="E120" t="s">
-        <v>48</v>
-      </c>
-      <c r="F120" t="s">
-        <v>26</v>
-      </c>
       <c r="G120" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H120" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="J120" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="K120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L120" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="M120" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B121" t="n">
-        <v>861983.0</v>
+        <v>462975.0</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G121" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="H121" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I121" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="J121" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="K121" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="L121" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="M121" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
